--- a/Backend/3. ASP.NET/.NET.xlsx
+++ b/Backend/3. ASP.NET/.NET.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janss\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janss\Desktop\Full-stack\Backend\3. ASP.NET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80AD210-1F96-4E9A-8619-77B8EA1F0EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F4CDDA-7E7D-437D-8FE9-DFB7B8C8D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="1095" windowWidth="27000" windowHeight="13335" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导航栏" sheetId="1" r:id="rId1"/>
     <sheet name=".NET前言" sheetId="2" r:id="rId2"/>
+    <sheet name="依赖注入" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>https://www.nuget.org/</t>
   </si>
@@ -56,13 +57,121 @@
   </si>
   <si>
     <t>1. 包的下载</t>
+  </si>
+  <si>
+    <t>自己操控每一个细节</t>
+  </si>
+  <si>
+    <t>怎么样创建XX对象</t>
+  </si>
+  <si>
+    <t>我要XX对象</t>
+  </si>
+  <si>
+    <t>控制反转</t>
+  </si>
+  <si>
+    <t>1. 了解什么是依赖注入.</t>
+  </si>
+  <si>
+    <t>优点： 可以精细化的控制</t>
+  </si>
+  <si>
+    <t>缺点：需要对每个细节掌握，每次使用过程繁琐</t>
+  </si>
+  <si>
+    <t>两种实现方式：</t>
+  </si>
+  <si>
+    <t>1. 服务器定位器(ServiceLocator)</t>
+  </si>
+  <si>
+    <t>2. 依赖注入(Dependency Injection, DI)</t>
+  </si>
+  <si>
+    <t>2. 服务定位器和依赖注入的场景</t>
+  </si>
+  <si>
+    <t>服务定位器</t>
+  </si>
+  <si>
+    <t>依赖注入</t>
+  </si>
+  <si>
+    <t>主动获取依赖 —— 只需要说需要什么服务器，框架为我们自动创建好，不用自己去从头创建。</t>
+  </si>
+  <si>
+    <t>被动获取依赖 —— 依赖注入只用声明，连需要什么服务器这个步骤都省略了</t>
+  </si>
+  <si>
+    <t>依赖注入的几个概念</t>
+  </si>
+  <si>
+    <t>1. 服务：你需要使用的对象/类。</t>
+  </si>
+  <si>
+    <t>好处是：</t>
+  </si>
+  <si>
+    <t>如果后面想换成用圆通，只需要改注册的地方，其他代码都不用改，代码更容易测试和维护</t>
+  </si>
+  <si>
+    <t>3. 服务容器：服务容器就像一个管理员，负责保管和分发你注册的所有服务</t>
+  </si>
+  <si>
+    <t>不需要直接和服务容器打交道，框架会自动处理这些</t>
+  </si>
+  <si>
+    <t>4. 查询服务：在你需要某个服务时，框架帮你找到并创建这个服务</t>
+  </si>
+  <si>
+    <t>相当于一个对照表：</t>
+  </si>
+  <si>
+    <t>要 IDeliveryService → 给 SFExpress</t>
+  </si>
+  <si>
+    <t>要 IPayService → 给 WechatPay</t>
+  </si>
+  <si>
+    <t>要 IEmailService → 给 Gmail</t>
+  </si>
+  <si>
+    <t>框架就是根据你要的类型(接口)去这个对照表里查,然后给你对应的实现类的对象</t>
+  </si>
+  <si>
+    <t>5. 对象生命周期</t>
+  </si>
+  <si>
+    <t>1. Transient： 每次创建都会用新的</t>
+  </si>
+  <si>
+    <t>2. Scoped: 同一个请求内共用一个</t>
+  </si>
+  <si>
+    <t>3. Singleton：整个程序共用一个</t>
+  </si>
+  <si>
+    <r>
+      <t>2. 注册服务：用类和接口都可以，但是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更加推荐用接口</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +183,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,13 +222,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -263,6 +383,877 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7C3EE4-8A2D-4A9F-A367-F786B4C993D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952875" y="714375"/>
+          <a:ext cx="9525" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE4DE201-CE22-403C-A22A-7E7BB1DFE8DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2428875" y="1276350"/>
+          <a:ext cx="0" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{503E22EB-F5AE-4708-8083-76C64E6D7CF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2447925" y="2171700"/>
+          <a:ext cx="0" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773A1426-B7F1-4CC6-BE2E-9CD6DE259014}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="2162175"/>
+          <a:ext cx="0" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4EE64C-34C1-A1C6-3ECB-A98704755A58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466974" y="4333875"/>
+          <a:ext cx="4943475" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" kern="1200"/>
+            <a:t>IDbConnection conn = ServiceLocator.GetService&lt;IDbConnection&gt;();</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABD0D23-C377-4A7C-87DA-F80D8322E965}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2505075" y="5534025"/>
+          <a:ext cx="4924425" cy="1419225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>class demo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" kern="1200" baseline="0"/>
+            <a:t>    public IDbConnection Conn { get; set;}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" kern="1200" baseline="0"/>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" kern="1200" baseline="0"/>
+            <a:t>        IDbCommand cmd = Conn.CreateCommand();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" kern="1200" baseline="0"/>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" kern="1200" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{283C4E47-E3C0-4EE5-BA23-0EC3576E22EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="9020175"/>
+          <a:ext cx="4105275" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" kern="1200"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" kern="1200" baseline="0"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>首先在文件中告诉框架：快递服务用顺丰</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" kern="1200"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" kern="1200" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> 然后我在代码里直接说“我要快递服务”</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" altLang="zh-CN" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" kern="1200" baseline="0"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>框架看到我要快递服务时，就会给你顺丰的对象</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323ADEFD-F160-4A77-8C2F-1BF614A4A156}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2794552" y="11287125"/>
+          <a:ext cx="4128466" cy="1733136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>服务容器就是框架内部的一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>管理员</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>，它：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" altLang="zh-CN" sz="1100" kern="1200" baseline="0"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>记住所有注册的服务</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>负责创建这些服务的对象</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>管理这些对象的生命周期</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>在需要时把对象提供给你</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>356152</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>124239</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4698749F-AB37-413C-8A32-4EA30D9462A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2807804" y="13906500"/>
+          <a:ext cx="5897218" cy="2426804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>// 1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>注册时告诉框架</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>builder.Services.AddScoped&lt;IDeliveryService, SFExpress&gt;();  // IDeliveryService </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>用 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>SFExpress</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>// 2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>使用时</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>public class OnlineShop</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>    // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>框架看到 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>IDeliveryService </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>就会去找</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>    // "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>之前注册的 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>IDeliveryService </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>是用哪个类</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>? </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>哦是 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>SFExpress"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>    public OnlineShop(IDeliveryService delivery)  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -545,7 +1536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2EBE1C-E390-409C-BB2C-BB5D71FEC225}">
   <dimension ref="B3:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -613,4 +1604,188 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BAC886-AB83-4DC8-9A87-F1BDB750A71E}">
+  <dimension ref="C4:I102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U42" sqref="U42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="I17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E58" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E72" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F88" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G90" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G91" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G92" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F94" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E96" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D17:F18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Backend/3. ASP.NET/.NET.xlsx
+++ b/Backend/3. ASP.NET/.NET.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janss\Desktop\Full-stack\Backend\3. ASP.NET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F4CDDA-7E7D-437D-8FE9-DFB7B8C8D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262BF603-1E5C-4AED-9DA5-50865F466A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19620" yWindow="1680" windowWidth="18795" windowHeight="14790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导航栏" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>https://www.nuget.org/</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>被动获取依赖 —— 依赖注入只用声明，连需要什么服务器这个步骤都省略了</t>
-  </si>
-  <si>
-    <t>依赖注入的几个概念</t>
   </si>
   <si>
     <t>1. 服务：你需要使用的对象/类。</t>
@@ -165,6 +162,30 @@
       </rPr>
       <t>更加推荐用接口</t>
     </r>
+  </si>
+  <si>
+    <t>3. 依赖注入的几个概念</t>
+  </si>
+  <si>
+    <t>4. .net中使用DI</t>
+  </si>
+  <si>
+    <t>1. 安装依赖注入包</t>
+  </si>
+  <si>
+    <t>2. 引入命名空间</t>
+  </si>
+  <si>
+    <t>using Microsoft.Extensions.DependencyInjection;</t>
+  </si>
+  <si>
+    <t>3. 创建和配置ServiceCollection服务容器</t>
+  </si>
+  <si>
+    <t>在实际ASP.NET Core项目中，1-3步框架都帮你做好了，你只需要：</t>
+  </si>
+  <si>
+    <t>dotnet add package Microsoft.Extensions.DependencyInjection --version 9.0.0</t>
   </si>
 </sst>
 </file>
@@ -222,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -232,7 +253,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -786,15 +806,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -903,15 +923,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>66261</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1064,15 +1084,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>356152</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>124239</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>140804</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1174,6 +1194,9 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" kern="1200"/>
             <a:t>    // </a:t>
@@ -1238,9 +1261,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" kern="1200"/>
             <a:t>    }</a:t>
@@ -1251,6 +1271,292 @@
             <a:rPr lang="en-US" sz="1100" kern="1200"/>
             <a:t>}</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>24847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>356153</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F99DBB-E5EF-4A0A-BE1A-D47BA3323257}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2468218" y="21551347"/>
+          <a:ext cx="4017065" cy="2459936"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>// 1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>创建服务集合</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>var services = new ServiceCollection();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>// 2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>注册服务</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>services.AddScoped&lt;IUserService, UserService&gt;();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>services.AddScoped&lt;IEmailService, EmailService&gt;();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>// 3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>构建服务提供者</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>var serviceProvider = services.BuildServiceProvider();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>// 4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>获取服务使用</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>var userService = serviceProvider.GetService&lt;IUserService&gt;();</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>256761</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{481341EF-1EF0-408F-8609-904909C67CC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7611718" y="21617608"/>
+          <a:ext cx="4663108" cy="1880153"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>// Program.cs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>中注册</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>builder.Services.AddScoped&lt;IUserService, UserService&gt;();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>使用时</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>public class UserController</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>    public UserController(IUserService userService) // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>框架自动帮你获取</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1536,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2EBE1C-E390-409C-BB2C-BB5D71FEC225}">
   <dimension ref="B3:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BAC886-AB83-4DC8-9A87-F1BDB750A71E}">
-  <dimension ref="C4:I102"/>
+  <dimension ref="C4:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U42" sqref="U42"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,8 +2000,8 @@
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="2">
-        <v>3</v>
+      <c r="C40" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
@@ -1704,81 +2010,111 @@
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E44" s="2" t="s">
+      <c r="D44" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E54" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E46" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F56" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G56" s="2" t="s">
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D56" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E58" s="5" t="s">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F70" s="2" t="s">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D70" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E72" s="2" t="s">
+    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E86" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F88" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G90" s="2" t="s">
+    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G91" s="2" t="s">
+    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G92" s="2" t="s">
+    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E92" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F94" s="2" t="s">
+    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D94" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E96" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F98" s="2" t="s">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E98" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F100" s="2" t="s">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E100" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F102" s="2" t="s">
-        <v>40</v>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C102" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D104" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E106" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D108" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E110" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D112" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M113" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
